--- a/51EQ/src/main/resources/excel/Cash_Daily_Template_2.xlsx
+++ b/51EQ/src/main/resources/excel/Cash_Daily_Template_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="22340" windowHeight="11020"/>
+    <workbookView xWindow="980" yWindow="1200" windowWidth="22340" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>EQ+我行我素    销售一览表</t>
   </si>
@@ -218,6 +218,14 @@
   </si>
   <si>
     <t>${totalReport.saleAmt+totalReport.zfbSaleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>督导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.mngUserId}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +234,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -262,7 +270,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,13 +419,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,7 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,23 +455,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -869,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -893,28 +910,28 @@
     <col min="16" max="17" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25">
+    <row r="1" spans="1:18" ht="25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="22"/>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:18" ht="30">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="Q2" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="R2" s="24" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -988,7 +1008,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1040,8 +1060,11 @@
       <c r="Q4" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1062,13 +1085,13 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="17" t="s">
         <v>37</v>
       </c>

--- a/51EQ/src/main/resources/excel/Cash_Daily_Template_2.xlsx
+++ b/51EQ/src/main/resources/excel/Cash_Daily_Template_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1200" windowWidth="22340" windowHeight="11020"/>
+    <workbookView xWindow="-36640" yWindow="300" windowWidth="25600" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,32 +200,32 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>督导</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.mngUserId}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>当日销售额
-(普通 / 支付宝  / 金卡[消费/返利] / 代金卷)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${report.saleAmt+report.zfbSaleAmt+report.goldCardAmt+report.rebateAmt+report.couponValue}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${report.saleAmt} / ${report.zfbSaleAmt} / ${report.goldCardAmt} / ${report.rebateAmt} / ${report.couponValue}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${totalReport.saleAmt} / ${totalReport.zfbSaleAmt} / ${totalReport.goldCardAmt} / ${totalReport.rebateAmt} / ${totalReport.couponValue}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${totalReport.saleAmt+totalReport.zfbSaleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>督导</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${report.mngUserId}</t>
+(普通 / 支付宝 / 微信 / 金卡[消费/返利] / 代金卷)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.saleAmt} / ${report.zfbSaleAmt} / ${report.wxSaleAmt} /${report.goldCardAmt} / ${report.rebateAmt} / ${report.couponValue}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${report.saleAmt+report.zfbSaleAmt+report.wxSaleAmt+report.goldCardAmt+report.rebateAmt+report.couponValue}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${totalReport.saleAmt} / ${totalReport.zfbSaleAmt} / ${totalReport.wxSaleAmt} / ${totalReport.goldCardAmt} / ${totalReport.rebateAmt} / ${totalReport.couponValue}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${totalReport.saleAmt+totalReport.zfbSaleAmt+totalReport.wxSaleAmt+totalReport.goldCardAmt+totalReport.rebateAmt+totalReport.couponValue}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +889,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -969,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>31</v>
@@ -984,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1046,13 +1046,13 @@
         <v>38</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>24</v>
@@ -1061,7 +1061,7 @@
         <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1115,13 +1115,13 @@
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>28</v>
